--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">Aanpasse Klasse Tankkaart na feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanpassen Klasse Tankkaart en Beginnen aan Unit Testen Tankkaart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementeren WagenType en WagenTypeManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle testen in TankkaartTesten afwerken</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -460,11 +469,11 @@
   </sheetPr>
   <dimension ref="D2:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -559,29 +568,66 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="20" t="s">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="n">
-        <f aca="false">SUM(F5:F9)</f>
+      <c r="E10" s="16" t="n">
+        <v>44482</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="n">
+        <v>44483</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21" t="n">
+        <f aca="false">SUM(F5:F12)</f>
+        <v>15</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
-      <c r="G11" s="22" t="n">
-        <f aca="false">SUM(G5:G8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -590,7 +636,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t xml:space="preserve">Alle testen in TankkaartTesten afwerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagentype extra testen + comments bij Wagentype, wagentypemanager en rijbewijstypemanager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra tests Tankkaarttests en deels implementatie RijbewijstypeRepo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maken powerpoint voor deze week, samenzitten met Olivier en Luca, verder nadenken over volgende stap project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vervolledigen RijbewijstypeRepo</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -467,13 +479,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G1048576"/>
+  <dimension ref="D2:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -564,7 +576,7 @@
         <v>44476</v>
       </c>
       <c r="F9" s="17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -590,7 +602,7 @@
         <v>44483</v>
       </c>
       <c r="F11" s="17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="18"/>
     </row>
@@ -608,35 +620,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="16" t="n">
+        <v>44490</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21" t="n">
-        <f aca="false">SUM(F5:F12)</f>
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="16" t="n">
+        <v>44496</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="22" t="n">
+      <c r="E15" s="16" t="n">
+        <v>44497</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>44503</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="n">
+        <f aca="false">SUM(F5:F16)</f>
+        <v>33</v>
+      </c>
+      <c r="G19" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve">Vervolledigen RijbewijstypeRepo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maken VoertuigManager en TankkaartManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maken VoertuigRepo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleine codedingen aanpassen zoals spelfouten </t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -479,13 +488,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G19"/>
+  <dimension ref="D2:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -673,27 +682,57 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <v>44517</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="19"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="16" t="n">
+        <v>44517</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>3</v>
+      </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="n">
-        <f aca="false">SUM(F5:F16)</f>
-        <v>33</v>
-      </c>
-      <c r="G19" s="22" t="n">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <v>44517</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="n">
+        <f aca="false">SUM(F5:F19)</f>
+        <v>39</v>
+      </c>
+      <c r="G21" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -701,7 +740,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t xml:space="preserve">Kleine codedingen aanpassen zoals spelfouten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Doorlopen en verbeteren ADOqueries en methodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samenzitten Olivier en Luca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opfrissen WPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementeren Logica Bestuurder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designimplementatie BestuurderToevoegen en BestuurderAanpassen</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -488,13 +503,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G21"/>
+  <dimension ref="D2:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -717,22 +732,82 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="19"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="n">
+        <v>44524</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="n">
-        <f aca="false">SUM(F5:F19)</f>
-        <v>39</v>
-      </c>
-      <c r="G21" s="22" t="n">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="n">
+        <v>44525</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>44531</v>
+      </c>
+      <c r="F22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="n">
+        <v>44531</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <v>44531</v>
+      </c>
+      <c r="F24" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="n">
+        <f aca="false">SUM(F5:F24)</f>
+        <v>55</v>
+      </c>
+      <c r="G26" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -740,7 +815,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve">Designimplementatie BestuurderToevoegen en BestuurderAanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout maken BestuurderSelecteren en Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind Details en BestuurderToevoegen/Aanpassen</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -503,13 +509,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G26"/>
+  <dimension ref="D2:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -792,22 +798,64 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="n">
+        <v>44532</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="20" t="s">
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21" t="n">
-        <f aca="false">SUM(F5:F24)</f>
-        <v>55</v>
-      </c>
-      <c r="G26" s="22" t="n">
+      <c r="E26" s="16" t="n">
+        <v>44538</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <v>44538</v>
+      </c>
+      <c r="F27" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21" t="n">
+        <f aca="false">SUM(F5:F27)</f>
+        <v>63</v>
+      </c>
+      <c r="G30" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -815,7 +863,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -141,6 +141,30 @@
   </si>
   <si>
     <t xml:space="preserve">Code Behind Details en BestuurderToevoegen/Aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afwerken Code Behind Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleine aanpassing bestaande layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementatie layout VoertuigSelecteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfix SQL statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind MainWindow/Voertuig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind Bestuurder Aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugfix Code Behind Details en VoertuigZoeken van MainWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca Helpen met bugfix</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -509,13 +533,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G30"/>
+  <dimension ref="D2:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -835,27 +859,147 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <v>44539</v>
+      </c>
+      <c r="F28" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="19"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16" t="n">
+        <v>44539</v>
+      </c>
+      <c r="F29" s="17" t="n">
+        <v>3</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21" t="n">
-        <f aca="false">SUM(F5:F27)</f>
-        <v>63</v>
-      </c>
-      <c r="G30" s="22" t="n">
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F30" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F31" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F32" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F33" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="F34" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="16" t="n">
+        <v>44546</v>
+      </c>
+      <c r="F35" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="16" t="n">
+        <v>44546</v>
+      </c>
+      <c r="F36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="16" t="n">
+        <v>44546</v>
+      </c>
+      <c r="F37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21" t="n">
+        <f aca="false">SUM(F5:F37)</f>
+        <v>82</v>
+      </c>
+      <c r="G40" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -863,7 +1007,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t xml:space="preserve">Luca Helpen met bugfix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BestuurderAanpassen vervolledigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TankkaartSelecteren Design implementatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tankkaart Zoeken in main window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind TankkaartSelecteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind Bestuurder Toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL en repo Bugfixes</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -533,13 +551,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G40"/>
+  <dimension ref="D2:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -979,27 +997,81 @@
       <c r="G37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17" t="n">
+        <v>3</v>
+      </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="19"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21" t="n">
-        <f aca="false">SUM(F5:F37)</f>
-        <v>82</v>
-      </c>
-      <c r="G40" s="22" t="n">
+    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="19"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21" t="n">
+        <f aca="false">SUM(F5:F43)</f>
+        <v>92</v>
+      </c>
+      <c r="G45" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -1007,7 +1079,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t xml:space="preserve">SQL en repo Bugfixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samenzitten met Luca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind Voertuig Toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementatie extra feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Behind Voertuig Aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samenzitten met Luca en Olivier</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -551,13 +566,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G45"/>
+  <dimension ref="D2:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -898,7 +913,9 @@
       <c r="F29" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D30" s="15" t="s">
@@ -958,7 +975,9 @@
       <c r="F34" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D35" s="15" t="s">
@@ -1000,17 +1019,23 @@
       <c r="D38" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F38" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D39" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F39" s="17" t="n">
         <v>1</v>
       </c>
@@ -1020,7 +1045,9 @@
       <c r="D40" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F40" s="17" t="n">
         <v>1</v>
       </c>
@@ -1030,48 +1057,132 @@
       <c r="D41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F41" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D42" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F42" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="16" t="n">
+        <v>44552</v>
+      </c>
       <c r="F43" s="17" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="19"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="16" t="n">
+        <v>44553</v>
+      </c>
+      <c r="F44" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="20" t="s">
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="16" t="n">
+        <v>44558</v>
+      </c>
+      <c r="F45" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D46" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="16" t="n">
+        <v>44558</v>
+      </c>
+      <c r="F46" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21" t="n">
-        <f aca="false">SUM(F5:F43)</f>
-        <v>92</v>
-      </c>
-      <c r="G45" s="22" t="n">
+      <c r="E47" s="16" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F47" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D48" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="16" t="n">
+        <v>44559</v>
+      </c>
+      <c r="F48" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D49" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="16" t="n">
+        <v>44560</v>
+      </c>
+      <c r="F49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="19"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21" t="n">
+        <f aca="false">SUM(F5:F49)</f>
+        <v>104</v>
+      </c>
+      <c r="G51" s="22" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -1079,7 +1190,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
+++ b/Documentatie/Logboeken/Logboek-Arnout-Droesbeke.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t xml:space="preserve">Logboek Arnout Droesbeke</t>
   </si>
@@ -182,6 +182,9 @@
     <t xml:space="preserve">Code Behind Bestuurder Toevoegen</t>
   </si>
   <si>
+    <t xml:space="preserve">2,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">SQL en repo Bugfixes</t>
   </si>
   <si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">Samenzitten met Luca en Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samenzitten met Luca en Olivier + bugfix</t>
   </si>
   <si>
     <t xml:space="preserve">Totaal aant uren:</t>
@@ -207,10 +213,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -396,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,19 +480,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,13 +577,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:G51"/>
+  <dimension ref="D2:G53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
@@ -1074,8 +1085,8 @@
       <c r="E42" s="16" t="n">
         <v>44552</v>
       </c>
-      <c r="F42" s="17" t="n">
-        <v>2</v>
+      <c r="F42" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="G42" s="18" t="n">
         <v>2</v>
@@ -1083,7 +1094,7 @@
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D43" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="n">
         <v>44552</v>
@@ -1095,7 +1106,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D44" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="16" t="n">
         <v>44553</v>
@@ -1107,7 +1118,7 @@
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D45" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45" s="16" t="n">
         <v>44558</v>
@@ -1121,7 +1132,7 @@
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D46" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46" s="16" t="n">
         <v>44558</v>
@@ -1133,7 +1144,7 @@
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D47" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="n">
         <v>44559</v>
@@ -1145,7 +1156,7 @@
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D48" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="n">
         <v>44559</v>
@@ -1157,7 +1168,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D49" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="n">
         <v>44560</v>
@@ -1168,21 +1179,45 @@
       <c r="G49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="19"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="D50" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="20" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21" t="n">
-        <f aca="false">SUM(F5:F49)</f>
-        <v>104</v>
-      </c>
-      <c r="G51" s="22" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="20" t="n">
+        <v>44573</v>
+      </c>
+      <c r="F51" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="19"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22" t="n">
+        <f aca="false">SUM(F5:F51)</f>
+        <v>105</v>
+      </c>
+      <c r="G53" s="23" t="n">
         <f aca="false">SUM(G5:G12)</f>
         <v>8</v>
       </c>
@@ -1190,7 +1225,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
